--- a/testData/loginData.xlsx
+++ b/testData/loginData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EclipseSoftware\automation-assignment\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD652231-3EBB-4932-B54D-D956C363AA0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF6A130-D1CA-4859-808E-128E7A0D1559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3228" yWindow="2460" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2196" yWindow="3144" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTestData" sheetId="1" r:id="rId1"/>
@@ -372,12 +372,12 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
